--- a/漏洞报告.xlsx
+++ b/漏洞报告.xlsx
@@ -345,6 +345,198 @@
         <v>时间</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>10.224.96.23</v>
+      </c>
+      <c r="B2">
+        <v>6379</v>
+      </c>
+      <c r="C2" t="str">
+        <v>REDIS</v>
+      </c>
+      <c r="D2" t="str"/>
+      <c r="E2" t="str"/>
+      <c r="F2" t="str">
+        <v>2021-02-19T15:17:00+08:00</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>10.224.120.168</v>
+      </c>
+      <c r="B3">
+        <v>6379</v>
+      </c>
+      <c r="C3" t="str">
+        <v>REDIS</v>
+      </c>
+      <c r="D3" t="str"/>
+      <c r="E3" t="str"/>
+      <c r="F3" t="str">
+        <v>2021-02-19T15:17:00+08:00</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>10.224.96.58</v>
+      </c>
+      <c r="B4">
+        <v>6379</v>
+      </c>
+      <c r="C4" t="str">
+        <v>REDIS</v>
+      </c>
+      <c r="D4" t="str"/>
+      <c r="E4" t="str"/>
+      <c r="F4" t="str">
+        <v>2021-02-19T15:17:00+08:00</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>10.224.72.135</v>
+      </c>
+      <c r="B5">
+        <v>6379</v>
+      </c>
+      <c r="C5" t="str">
+        <v>REDIS</v>
+      </c>
+      <c r="D5" t="str"/>
+      <c r="E5" t="str"/>
+      <c r="F5" t="str">
+        <v>2021-02-19T15:17:00+08:00</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>10.224.72.77</v>
+      </c>
+      <c r="B6">
+        <v>6379</v>
+      </c>
+      <c r="C6" t="str">
+        <v>REDIS</v>
+      </c>
+      <c r="D6" t="str"/>
+      <c r="E6" t="str"/>
+      <c r="F6" t="str">
+        <v>2021-02-19T15:17:00+08:00</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>10.224.120.178</v>
+      </c>
+      <c r="B7">
+        <v>6379</v>
+      </c>
+      <c r="C7" t="str">
+        <v>REDIS</v>
+      </c>
+      <c r="D7" t="str"/>
+      <c r="E7" t="str"/>
+      <c r="F7" t="str">
+        <v>2021-02-19T15:17:00+08:00</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>10.224.72.159</v>
+      </c>
+      <c r="B8">
+        <v>6379</v>
+      </c>
+      <c r="C8" t="str">
+        <v>REDIS</v>
+      </c>
+      <c r="D8" t="str"/>
+      <c r="E8" t="str"/>
+      <c r="F8" t="str">
+        <v>2021-02-19T15:17:00+08:00</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>10.224.120.47</v>
+      </c>
+      <c r="B9">
+        <v>6379</v>
+      </c>
+      <c r="C9" t="str">
+        <v>REDIS</v>
+      </c>
+      <c r="D9" t="str"/>
+      <c r="E9" t="str"/>
+      <c r="F9" t="str">
+        <v>2021-02-19T15:17:00+08:00</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>10.224.96.8</v>
+      </c>
+      <c r="B10">
+        <v>6379</v>
+      </c>
+      <c r="C10" t="str">
+        <v>REDIS</v>
+      </c>
+      <c r="D10" t="str"/>
+      <c r="E10" t="str"/>
+      <c r="F10" t="str">
+        <v>2021-02-19T15:17:00+08:00</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>10.224.217.37</v>
+      </c>
+      <c r="B11">
+        <v>6379</v>
+      </c>
+      <c r="C11" t="str">
+        <v>REDIS</v>
+      </c>
+      <c r="D11" t="str"/>
+      <c r="E11" t="str"/>
+      <c r="F11" t="str">
+        <v>2021-02-19T15:17:00+08:00</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>10.224.197.17</v>
+      </c>
+      <c r="B12">
+        <v>6379</v>
+      </c>
+      <c r="C12" t="str">
+        <v>REDIS</v>
+      </c>
+      <c r="D12" t="str"/>
+      <c r="E12" t="str"/>
+      <c r="F12" t="str">
+        <v>2021-02-19T15:17:00+08:00</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>10.224.206.59</v>
+      </c>
+      <c r="B13">
+        <v>6379</v>
+      </c>
+      <c r="C13" t="str">
+        <v>REDIS</v>
+      </c>
+      <c r="D13" t="str"/>
+      <c r="E13" t="str"/>
+      <c r="F13" t="str">
+        <v>2021-02-19T15:17:00+08:00</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
